--- a/teaching/traditional_assets/database/data/italy/italy_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/italy/italy_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.144</v>
+        <v>0.03705</v>
       </c>
       <c r="E2">
-        <v>0.24525</v>
+        <v>0.0285</v>
       </c>
       <c r="F2">
-        <v>0.138</v>
+        <v>0.0496</v>
       </c>
       <c r="G2">
-        <v>0.08999271792113051</v>
+        <v>0.1062576169260584</v>
       </c>
       <c r="H2">
-        <v>0.08876263703101117</v>
+        <v>0.1044143208199309</v>
       </c>
       <c r="I2">
-        <v>0.06648268520404574</v>
+        <v>0.07087487263500689</v>
       </c>
       <c r="J2">
-        <v>0.05197947416229889</v>
+        <v>0.05535490589723754</v>
       </c>
       <c r="K2">
-        <v>713.15</v>
+        <v>950.16</v>
       </c>
       <c r="L2">
-        <v>0.2339285831436275</v>
+        <v>0.2372884742173296</v>
       </c>
       <c r="M2">
-        <v>532.4512</v>
+        <v>15.0276</v>
       </c>
       <c r="N2">
-        <v>0.04062652220357088</v>
+        <v>0.001203266874849868</v>
       </c>
       <c r="O2">
-        <v>0.7466188038981981</v>
+        <v>0.01581586259156353</v>
       </c>
       <c r="P2">
-        <v>505.0402</v>
+        <v>15.0276</v>
       </c>
       <c r="Q2">
-        <v>0.03853503738745612</v>
+        <v>0.001203266874849868</v>
       </c>
       <c r="R2">
-        <v>0.708182289840847</v>
+        <v>0.01581586259156353</v>
       </c>
       <c r="S2">
-        <v>27.41099999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.05148077420052766</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>729.268</v>
+        <v>873.248</v>
       </c>
       <c r="V2">
-        <v>0.05564382725469251</v>
+        <v>0.06992137080630956</v>
       </c>
       <c r="W2">
-        <v>0.1371386235601875</v>
+        <v>0.1013115377304695</v>
       </c>
       <c r="X2">
-        <v>0.03564434157337769</v>
+        <v>0.02713161334133704</v>
       </c>
       <c r="Y2">
-        <v>0.1014942819868098</v>
+        <v>0.07417992438913244</v>
       </c>
       <c r="Z2">
-        <v>0.1679480823459981</v>
+        <v>0.2105367539965015</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.03617452617701648</v>
+        <v>0.02887542478090049</v>
       </c>
       <c r="AC2">
-        <v>-0.03617452617701648</v>
+        <v>-0.0231693886482524</v>
       </c>
       <c r="AD2">
-        <v>15476.24</v>
+        <v>17226.577</v>
       </c>
       <c r="AE2">
-        <v>54.06107770325137</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15530.30107770325</v>
+        <v>17226.577</v>
       </c>
       <c r="AG2">
-        <v>14801.03307770325</v>
+        <v>16353.329</v>
       </c>
       <c r="AH2">
-        <v>0.542329158907867</v>
+        <v>0.5797153795802115</v>
       </c>
       <c r="AI2">
-        <v>0.7344355305851107</v>
+        <v>0.7262182349710722</v>
       </c>
       <c r="AJ2">
-        <v>0.5303692813382145</v>
+        <v>0.5669905852609892</v>
       </c>
       <c r="AK2">
-        <v>0.7249497515761927</v>
+        <v>0.7157541841540298</v>
       </c>
       <c r="AL2">
-        <v>20.27</v>
+        <v>38.96</v>
       </c>
       <c r="AM2">
-        <v>11.806</v>
+        <v>35.511</v>
       </c>
       <c r="AN2">
-        <v>54.64966983297433</v>
+        <v>41.91381265206813</v>
       </c>
       <c r="AO2">
-        <v>10.08880118401579</v>
+        <v>7.284394250513347</v>
       </c>
       <c r="AP2">
-        <v>52.26538040786487</v>
+        <v>39.78912165450122</v>
       </c>
       <c r="AQ2">
-        <v>17.3217008300864</v>
+        <v>7.99188983695193</v>
       </c>
     </row>
     <row r="3">
@@ -727,116 +727,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.0479</v>
+      </c>
       <c r="G3">
-        <v>0.393406186330802</v>
+        <v>0.3819339701692643</v>
       </c>
       <c r="H3">
-        <v>0.393406186330802</v>
+        <v>0.3819339701692643</v>
       </c>
       <c r="I3">
-        <v>0.2757694722179531</v>
+        <v>0.2495391318920731</v>
       </c>
       <c r="J3">
-        <v>0.2303545545608336</v>
+        <v>0.1586318698562343</v>
       </c>
       <c r="K3">
-        <v>89.09999999999999</v>
+        <v>53.3</v>
       </c>
       <c r="L3">
-        <v>0.1650305612150398</v>
+        <v>0.08932461873638343</v>
       </c>
       <c r="M3">
-        <v>91.19999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.04873877725523727</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.023569023569024</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>63.8</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.0340957674219752</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.7160493827160493</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>27.39999999999999</v>
-      </c>
-      <c r="T3">
-        <v>0.300438596491228</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>81.2</v>
+        <v>52.3</v>
       </c>
       <c r="V3">
-        <v>0.0433946130825139</v>
+        <v>0.02984648747360612</v>
       </c>
       <c r="W3">
-        <v>0.1445959104186952</v>
+        <v>0.1013115377304695</v>
       </c>
       <c r="X3">
-        <v>0.03352888823076566</v>
+        <v>0.02420798600894393</v>
       </c>
       <c r="Y3">
-        <v>0.1110670221879295</v>
+        <v>0.07710355172152555</v>
       </c>
       <c r="Z3">
-        <v>1.521658151320383</v>
+        <v>2.086363636363636</v>
       </c>
       <c r="AA3">
-        <v>0.3505208856412684</v>
+        <v>0.3309637648364161</v>
       </c>
       <c r="AB3">
-        <v>0.03535342743689955</v>
+        <v>0.0257560285312485</v>
       </c>
       <c r="AC3">
-        <v>0.3151674582043689</v>
+        <v>0.3052077363051676</v>
       </c>
       <c r="AD3">
-        <v>693.2</v>
+        <v>749.3</v>
       </c>
       <c r="AE3">
-        <v>44.81030974763574</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>738.0103097476358</v>
+        <v>749.3</v>
       </c>
       <c r="AG3">
-        <v>656.8103097476358</v>
+        <v>697</v>
       </c>
       <c r="AH3">
-        <v>0.2828481502585419</v>
+        <v>0.2995283018867925</v>
       </c>
       <c r="AI3">
-        <v>0.5761158236837507</v>
+        <v>0.5545030711167024</v>
       </c>
       <c r="AJ3">
-        <v>0.2598131452293022</v>
+        <v>0.2845711019474952</v>
       </c>
       <c r="AK3">
-        <v>0.5474284596585831</v>
+        <v>0.5365665896843725</v>
       </c>
       <c r="AL3">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM3">
-        <v>18.335</v>
+        <v>18.861</v>
       </c>
       <c r="AN3">
-        <v>3.121819410042784</v>
+        <v>3.395106479383779</v>
       </c>
       <c r="AO3">
-        <v>7.973684210526316</v>
+        <v>7.635897435897436</v>
       </c>
       <c r="AP3">
-        <v>2.957938796431596</v>
+        <v>3.158133212505664</v>
       </c>
       <c r="AQ3">
-        <v>8.262885192255249</v>
+        <v>7.894597317215418</v>
       </c>
     </row>
     <row r="4">
@@ -856,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.277</v>
+        <v>0.184</v>
       </c>
       <c r="E4">
-        <v>0.4</v>
+        <v>0.174</v>
       </c>
       <c r="G4">
-        <v>0.2649700598802395</v>
+        <v>0.2407497396737244</v>
       </c>
       <c r="H4">
-        <v>0.2489307100085543</v>
+        <v>0.215203054494967</v>
       </c>
       <c r="I4">
-        <v>0.2300677776256496</v>
+        <v>0.2294342242276987</v>
       </c>
       <c r="J4">
-        <v>0.1820071973866358</v>
+        <v>0.1796182305880455</v>
       </c>
       <c r="K4">
-        <v>40.4</v>
+        <v>50.2</v>
       </c>
       <c r="L4">
-        <v>0.1727972626176219</v>
+        <v>0.1742450538007636</v>
       </c>
       <c r="M4">
-        <v>12.2952</v>
+        <v>5.3016</v>
       </c>
       <c r="N4">
-        <v>0.01452474896633196</v>
+        <v>0.003304412864622288</v>
       </c>
       <c r="O4">
-        <v>0.3043366336633664</v>
+        <v>0.105609561752988</v>
       </c>
       <c r="P4">
-        <v>12.2952</v>
+        <v>5.3016</v>
       </c>
       <c r="Q4">
-        <v>0.01452474896633196</v>
+        <v>0.003304412864622288</v>
       </c>
       <c r="R4">
-        <v>0.3043366336633664</v>
+        <v>0.105609561752988</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>29.3</v>
+        <v>121.2</v>
       </c>
       <c r="V4">
-        <v>0.03461311281748376</v>
+        <v>0.07554225878833208</v>
       </c>
       <c r="W4">
-        <v>0.3822138126773888</v>
+        <v>0.4700374531835206</v>
       </c>
       <c r="X4">
-        <v>0.0319263013797438</v>
+        <v>0.02151614393786035</v>
       </c>
       <c r="Y4">
-        <v>0.350287511297645</v>
+        <v>0.4485213092456603</v>
       </c>
       <c r="Z4">
-        <v>1.419113263635811</v>
+        <v>1.199417152373023</v>
       </c>
       <c r="AA4">
-        <v>0.258288827888556</v>
+        <v>0.2154371866461944</v>
       </c>
       <c r="AB4">
-        <v>0.03328596554363115</v>
+        <v>0.02231298493345869</v>
       </c>
       <c r="AC4">
-        <v>0.2250028623449249</v>
+        <v>0.1931242017127357</v>
       </c>
       <c r="AD4">
-        <v>162.7</v>
+        <v>181</v>
       </c>
       <c r="AE4">
-        <v>9.250767955615631</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>171.9507679556156</v>
+        <v>181</v>
       </c>
       <c r="AG4">
-        <v>142.6507679556156</v>
+        <v>59.8</v>
       </c>
       <c r="AH4">
-        <v>0.1688356210882736</v>
+        <v>0.10137784250028</v>
       </c>
       <c r="AI4">
-        <v>0.6129042854119687</v>
+        <v>0.5479866787768695</v>
       </c>
       <c r="AJ4">
-        <v>0.1442153942320111</v>
+        <v>0.0359331811080399</v>
       </c>
       <c r="AK4">
-        <v>0.5677625151809105</v>
+        <v>0.2859875657580105</v>
       </c>
       <c r="AL4">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AM4">
-        <v>-1.08</v>
+        <v>1.042</v>
       </c>
       <c r="AN4">
-        <v>2.66110565914295</v>
+        <v>2.531468531468532</v>
       </c>
       <c r="AO4">
-        <v>41.73228346456693</v>
+        <v>48.60294117647058</v>
       </c>
       <c r="AP4">
-        <v>2.333182334897213</v>
+        <v>0.8363636363636363</v>
       </c>
       <c r="AQ4">
-        <v>-49.07407407407407</v>
+        <v>63.43570057581573</v>
       </c>
     </row>
     <row r="5">
@@ -981,7 +981,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conafi S.p.A. (BIT:CNF)</t>
+          <t>doValue S.p.A. (BIT:DOV)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -989,110 +989,116 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0801</v>
-      </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.268819459006081</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.268819459006081</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1442650450828266</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07567391253698656</v>
       </c>
       <c r="K5">
-        <v>-2.12</v>
+        <v>19.8</v>
       </c>
       <c r="L5">
-        <v>-1.019230769230769</v>
+        <v>0.04151813797441812</v>
       </c>
       <c r="M5">
-        <v>0.8596999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="N5">
-        <v>0.06823015873015872</v>
+        <v>0.009875093413045799</v>
       </c>
       <c r="O5">
-        <v>-0.4055188679245282</v>
+        <v>0.4671717171717172</v>
       </c>
       <c r="P5">
-        <v>0.8486999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="Q5">
-        <v>0.06735714285714285</v>
+        <v>0.009875093413045799</v>
       </c>
       <c r="R5">
-        <v>-0.4003301886792452</v>
+        <v>0.4671717171717172</v>
       </c>
       <c r="S5">
-        <v>0.01100000000000001</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01279516110271026</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>10.2</v>
+        <v>199.9</v>
       </c>
       <c r="V5">
-        <v>0.8095238095238095</v>
+        <v>0.2134087754884168</v>
       </c>
       <c r="W5">
-        <v>-0.07517730496453902</v>
+        <v>0.08552915766738661</v>
       </c>
       <c r="X5">
-        <v>0.03191336375366721</v>
+        <v>0.02713161334133704</v>
       </c>
       <c r="Y5">
-        <v>-0.1070906687182062</v>
+        <v>0.05839754432604957</v>
       </c>
       <c r="Z5">
-        <v>0.0631489465055559</v>
+        <v>1.121062529384109</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.084835187797106</v>
       </c>
       <c r="AB5">
-        <v>0.03326659668272034</v>
+        <v>0.03399068987592313</v>
       </c>
       <c r="AC5">
-        <v>-0.03326659668272034</v>
+        <v>0.05084449792118287</v>
       </c>
       <c r="AD5">
-        <v>2.54</v>
+        <v>720.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>2.54</v>
+        <v>720.8</v>
       </c>
       <c r="AG5">
-        <v>-7.659999999999999</v>
+        <v>520.9</v>
       </c>
       <c r="AH5">
-        <v>0.1677675033025099</v>
+        <v>0.4348717948717948</v>
       </c>
       <c r="AI5">
-        <v>0.1052195526097763</v>
+        <v>0.7540537713149911</v>
       </c>
       <c r="AJ5">
-        <v>-1.550607287449392</v>
+        <v>0.3573682766190999</v>
       </c>
       <c r="AK5">
-        <v>-0.5494978479196556</v>
+        <v>0.689021164021164</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="AM5">
-        <v>-0.479</v>
+        <v>17.383</v>
+      </c>
+      <c r="AN5">
+        <v>6.067340067340067</v>
+      </c>
+      <c r="AO5">
+        <v>3.80110497237569</v>
+      </c>
+      <c r="AP5">
+        <v>4.384680134680135</v>
       </c>
       <c r="AQ5">
-        <v>-0</v>
+        <v>3.957889892423632</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>doValue S.p.A. (BIT:DOV)</t>
+          <t>Confinvest F.L. S.p.A. (BIT:CFV)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1111,11 +1117,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F6">
-        <v>0.138</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0004906542056074767</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1127,28 +1130,28 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>37.8</v>
+        <v>1.22</v>
       </c>
       <c r="L6">
-        <v>0.1372549019607843</v>
+        <v>0.02850467289719626</v>
       </c>
       <c r="M6">
-        <v>39.5</v>
+        <v>0.476</v>
       </c>
       <c r="N6">
-        <v>0.0363151604302657</v>
+        <v>0.01262599469496021</v>
       </c>
       <c r="O6">
-        <v>1.044973544973545</v>
+        <v>0.3901639344262295</v>
       </c>
       <c r="P6">
-        <v>39.5</v>
+        <v>0.476</v>
       </c>
       <c r="Q6">
-        <v>0.0363151604302657</v>
+        <v>0.01262599469496021</v>
       </c>
       <c r="R6">
-        <v>1.044973544973545</v>
+        <v>0.3901639344262295</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1157,55 +1160,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>164.9</v>
+        <v>1.69</v>
       </c>
       <c r="V6">
-        <v>0.1516043026569826</v>
+        <v>0.04482758620689654</v>
       </c>
       <c r="W6">
-        <v>0.1516245487364621</v>
+        <v>0.359882005899705</v>
       </c>
       <c r="X6">
-        <v>0.03410742611088992</v>
+        <v>0.02067325535591607</v>
       </c>
       <c r="Y6">
-        <v>0.1175171226255722</v>
+        <v>0.3392087505437889</v>
       </c>
       <c r="Z6">
-        <v>1.104781771501925</v>
+        <v>11.18954248366013</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.03596702191703155</v>
+        <v>0.02086592481871415</v>
       </c>
       <c r="AC6">
-        <v>-0.03596702191703155</v>
+        <v>-0.02086592481871415</v>
       </c>
       <c r="AD6">
-        <v>504.1</v>
+        <v>0.537</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>504.1</v>
+        <v>0.537</v>
       </c>
       <c r="AG6">
-        <v>339.2</v>
+        <v>-1.153</v>
       </c>
       <c r="AH6">
-        <v>0.3166855132554341</v>
+        <v>0.01404398880665324</v>
       </c>
       <c r="AI6">
-        <v>0.6852909189777053</v>
+        <v>0.06632085957762135</v>
       </c>
       <c r="AJ6">
-        <v>0.2377181302123485</v>
+        <v>-0.03154841710673927</v>
       </c>
       <c r="AK6">
-        <v>0.5943578062029088</v>
+        <v>-0.1799594193850476</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1222,7 +1225,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Banca Farmafactoring S.p.A. (BIT:BFF)</t>
+          <t>Conafi S.p.A. (BIT:CNF)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1230,8 +1233,8 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F7">
-        <v>0.05230000000000001</v>
+      <c r="D7">
+        <v>-0.355</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1246,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>102.8</v>
+        <v>-2.96</v>
       </c>
       <c r="L7">
-        <v>0.4664246823956443</v>
+        <v>-2.846153846153846</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1258,7 +1261,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1267,67 +1270,70 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>28.3</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="V7">
-        <v>0.02775598273832876</v>
+        <v>0.7208695652173912</v>
       </c>
       <c r="W7">
-        <v>0.2676386357719344</v>
+        <v>-0.137037037037037</v>
       </c>
       <c r="X7">
-        <v>0.03718125703586546</v>
+        <v>0.02206834471514694</v>
       </c>
       <c r="Y7">
-        <v>0.2304573787360689</v>
+        <v>-0.1591053817521839</v>
       </c>
       <c r="Z7">
-        <v>0.1883760683760684</v>
+        <v>0.07460545193687231</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.03638203043700142</v>
+        <v>0.0231693886482524</v>
       </c>
       <c r="AC7">
-        <v>-0.03638203043700142</v>
+        <v>-0.0231693886482524</v>
       </c>
       <c r="AD7">
-        <v>846.6</v>
+        <v>2.04</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>846.6</v>
+        <v>2.04</v>
       </c>
       <c r="AG7">
-        <v>818.3000000000001</v>
+        <v>-6.249999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.4536491265673561</v>
+        <v>0.1506646971935008</v>
       </c>
       <c r="AI7">
-        <v>0.6973066468989375</v>
+        <v>0.1033434650455927</v>
       </c>
       <c r="AJ7">
-        <v>0.4452364111213886</v>
+        <v>-1.19047619047619</v>
       </c>
       <c r="AK7">
-        <v>0.6900826446280991</v>
+        <v>-0.5458515283842794</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>-0.275</v>
+      </c>
+      <c r="AQ7">
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -1338,7 +1344,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Banca Mediolanum S.p.A. (BIT:BMED)</t>
+          <t>Banca Farmafactoring S.p.A. (BIT:BFF)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1347,7 +1353,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>0.228</v>
+        <v>0.0496</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1362,85 +1368,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>292.6</v>
+        <v>104.3</v>
       </c>
       <c r="L8">
-        <v>0.2584805653710248</v>
+        <v>0.4210738796931772</v>
       </c>
       <c r="M8">
-        <v>327.6063</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>0.04500457455284776</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>1.119638755980861</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>327.6063</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.04500457455284776</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>1.119638755980861</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>153.8</v>
+        <v>87.2</v>
       </c>
       <c r="V8">
-        <v>0.02112811495452922</v>
+        <v>0.08489923084412425</v>
       </c>
       <c r="W8">
-        <v>0.1296813367016798</v>
+        <v>0.2838095238095238</v>
       </c>
       <c r="X8">
-        <v>0.04143166386575585</v>
+        <v>0.02841487258809774</v>
       </c>
       <c r="Y8">
-        <v>0.0882496728359239</v>
+        <v>0.255394651221426</v>
       </c>
       <c r="Z8">
-        <v>0.1030280414660563</v>
+        <v>0.2149986980296849</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.03799140339640901</v>
+        <v>0.02887542478090049</v>
       </c>
       <c r="AC8">
-        <v>-0.03799140339640901</v>
+        <v>-0.02887542478090049</v>
       </c>
       <c r="AD8">
-        <v>9737.1</v>
+        <v>944.5</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>9737.1</v>
+        <v>944.5</v>
       </c>
       <c r="AG8">
-        <v>9583.300000000001</v>
+        <v>857.3</v>
       </c>
       <c r="AH8">
-        <v>0.5722152028913114</v>
+        <v>0.4790525461554068</v>
       </c>
       <c r="AI8">
-        <v>0.7993350572589583</v>
+        <v>0.6534071255620892</v>
       </c>
       <c r="AJ8">
-        <v>0.5683134966523748</v>
+        <v>0.4549458713648907</v>
       </c>
       <c r="AK8">
-        <v>0.796769124604039</v>
+        <v>0.6311565927998233</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1457,7 +1460,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mittel S.p.A (BIT:MIT)</t>
+          <t>Banca Mediolanum S.p.A. (BIT:BMED)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1465,6 +1468,9 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
+      <c r="F9">
+        <v>-0.0301</v>
+      </c>
       <c r="G9">
         <v>0</v>
       </c>
@@ -1478,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>-2.03</v>
+        <v>623</v>
       </c>
       <c r="L9">
-        <v>-0.01559139784946236</v>
+        <v>0.3640719962599345</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1490,7 +1496,7 @@
         <v>-0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P9">
         <v>-0</v>
@@ -1499,70 +1505,67 @@
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>261.5</v>
+        <v>194.8</v>
       </c>
       <c r="V9">
-        <v>1.747994652406417</v>
+        <v>0.03054248980871747</v>
       </c>
       <c r="W9">
-        <v>-0.007789716039907904</v>
+        <v>0.2548682703321878</v>
       </c>
       <c r="X9">
-        <v>0.05800899517102279</v>
+        <v>0.03279436078882201</v>
       </c>
       <c r="Y9">
-        <v>-0.06579871121093069</v>
+        <v>0.2220739095433658</v>
       </c>
       <c r="Z9">
-        <v>0.4439140811455846</v>
+        <v>0.1440064631231696</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04065317006159631</v>
+        <v>0.03078187920698999</v>
       </c>
       <c r="AC9">
-        <v>-0.04065317006159631</v>
+        <v>-0.03078187920698999</v>
       </c>
       <c r="AD9">
-        <v>496.1</v>
+        <v>9131.6</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>496.1</v>
+        <v>9131.6</v>
       </c>
       <c r="AG9">
-        <v>234.6</v>
+        <v>8936.800000000001</v>
       </c>
       <c r="AH9">
-        <v>0.7683134582623509</v>
+        <v>0.5887708258111105</v>
       </c>
       <c r="AI9">
-        <v>0.6545718432510885</v>
+        <v>0.7561462344222251</v>
       </c>
       <c r="AJ9">
-        <v>0.6106194690265486</v>
+        <v>0.583540104996474</v>
       </c>
       <c r="AK9">
-        <v>0.4726027397260274</v>
+        <v>0.7521482616123956</v>
       </c>
       <c r="AL9">
         <v>0</v>
       </c>
       <c r="AM9">
-        <v>-4.97</v>
-      </c>
-      <c r="AQ9">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1573,117 +1576,233 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Mittel S.p.A (BIT:MIT)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-6.1</v>
+      </c>
+      <c r="L10">
+        <v>-0.0433546552949538</v>
+      </c>
+      <c r="M10">
+        <v>-0</v>
+      </c>
+      <c r="N10">
+        <v>-0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>-0</v>
+      </c>
+      <c r="Q10">
+        <v>-0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>207.8</v>
+      </c>
+      <c r="V10">
+        <v>1.470629865534324</v>
+      </c>
+      <c r="W10">
+        <v>-0.02492848385778504</v>
+      </c>
+      <c r="X10">
+        <v>0.04933956611242683</v>
+      </c>
+      <c r="Y10">
+        <v>-0.07426804997021187</v>
+      </c>
+      <c r="Z10">
+        <v>0.35521332996718</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.03394807892906505</v>
+      </c>
+      <c r="AC10">
+        <v>-0.03394807892906505</v>
+      </c>
+      <c r="AD10">
+        <v>475.7</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>475.7</v>
+      </c>
+      <c r="AG10">
+        <v>267.9</v>
+      </c>
+      <c r="AH10">
+        <v>0.7709886547811994</v>
+      </c>
+      <c r="AI10">
+        <v>0.6457173883534681</v>
+      </c>
+      <c r="AJ10">
+        <v>0.6546920821114369</v>
+      </c>
+      <c r="AK10">
+        <v>0.5065229722064662</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>-1.5</v>
+      </c>
+      <c r="AQ10">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Banca IFIS S.p.A. (BIT:IF)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D10">
-        <v>0.144</v>
-      </c>
-      <c r="E10">
-        <v>0.09050000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>154.6</v>
-      </c>
-      <c r="L10">
-        <v>0.3003108003108003</v>
-      </c>
-      <c r="M10">
-        <v>60.98999999999999</v>
-      </c>
-      <c r="N10">
-        <v>0.07265904217298069</v>
-      </c>
-      <c r="O10">
-        <v>0.3945019404915912</v>
-      </c>
-      <c r="P10">
-        <v>60.98999999999999</v>
-      </c>
-      <c r="Q10">
-        <v>0.07265904217298069</v>
-      </c>
-      <c r="R10">
-        <v>0.3945019404915912</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
+      <c r="D11">
+        <v>0.0262</v>
+      </c>
+      <c r="E11">
+        <v>-0.117</v>
+      </c>
+      <c r="F11">
+        <v>0.15</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>107.4</v>
+      </c>
+      <c r="L11">
+        <v>0.2151873372069726</v>
+      </c>
+      <c r="M11">
+        <v>-0</v>
+      </c>
+      <c r="N11">
+        <v>-0</v>
+      </c>
+      <c r="O11">
+        <v>-0</v>
+      </c>
+      <c r="P11">
+        <v>-0</v>
+      </c>
+      <c r="Q11">
+        <v>-0</v>
+      </c>
+      <c r="R11">
+        <v>-0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>0.068</v>
       </c>
-      <c r="V10">
-        <v>8.101024541339052e-05</v>
-      </c>
-      <c r="W10">
-        <v>0.09559732871629976</v>
-      </c>
-      <c r="X10">
-        <v>0.06050739232767147</v>
-      </c>
-      <c r="Y10">
-        <v>0.0350899363886283</v>
-      </c>
-      <c r="Z10">
-        <v>0.1050710883062491</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0.0444281782886541</v>
-      </c>
-      <c r="AC10">
-        <v>-0.0444281782886541</v>
-      </c>
-      <c r="AD10">
-        <v>3033.9</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>3033.9</v>
-      </c>
-      <c r="AG10">
-        <v>3033.832</v>
-      </c>
-      <c r="AH10">
-        <v>0.7832855704438076</v>
-      </c>
-      <c r="AI10">
-        <v>0.6495043993920061</v>
-      </c>
-      <c r="AJ10">
-        <v>0.783281765719172</v>
-      </c>
-      <c r="AK10">
-        <v>0.6494992969433735</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
+      <c r="V11">
+        <v>0.0001133333333333333</v>
+      </c>
+      <c r="W11">
+        <v>0.0658451351848446</v>
+      </c>
+      <c r="X11">
+        <v>0.09211137029117043</v>
+      </c>
+      <c r="Y11">
+        <v>-0.02626623510632584</v>
+      </c>
+      <c r="Z11">
+        <v>0.1080576214939188</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0.03607264252910117</v>
+      </c>
+      <c r="AC11">
+        <v>-0.03607264252910117</v>
+      </c>
+      <c r="AD11">
+        <v>5021.1</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>5021.1</v>
+      </c>
+      <c r="AG11">
+        <v>5021.032</v>
+      </c>
+      <c r="AH11">
+        <v>0.89325932646635</v>
+      </c>
+      <c r="AI11">
+        <v>0.7387338345422177</v>
+      </c>
+      <c r="AJ11">
+        <v>0.8932580351793051</v>
+      </c>
+      <c r="AK11">
+        <v>0.7387312206628029</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
         <v>0</v>
       </c>
     </row>
